--- a/data/trans_orig/P43D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB164F57-596B-4198-99D3-6C35C78E5DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{329661ED-9563-437D-B0DA-10044C29529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F5F2D95F-3EDB-4CF2-9F29-C8E0568E49AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F1B51CF-3750-417F-A221-24B29E8499D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="207">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>37,07%</t>
+    <t>37,03%</t>
   </si>
   <si>
     <t>45,25%</t>
@@ -92,10 +92,10 @@
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,574 +104,562 @@
     <t>21,11%</t>
   </si>
   <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06000589-250D-4EEE-BDC6-12CECBDAB038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433E3D6-DCE5-433E-B4B2-743C8D79AFB8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1967,7 +1955,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -1982,7 +1970,7 @@
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +1998,13 @@
         <v>554054</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
@@ -2025,13 +2013,13 @@
         <v>554054</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2047,13 @@
         <v>471680</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -2074,13 +2062,13 @@
         <v>471680</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2096,13 @@
         <v>331836</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -2123,13 +2111,13 @@
         <v>331836</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,7 +2142,7 @@
         <v>1730</v>
       </c>
       <c r="I23" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -2169,7 +2157,7 @@
         <v>1730</v>
       </c>
       <c r="N23" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -2183,7 +2171,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95494E68-8AC1-48D2-905D-750AD2830B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31805369-7E27-4508-AEF1-2B126EFA0E17}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2219,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2339,13 +2327,13 @@
         <v>214229</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>198</v>
@@ -2354,13 +2342,13 @@
         <v>214229</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2376,13 @@
         <v>231254</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -2403,13 +2391,13 @@
         <v>231254</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2425,13 @@
         <v>153064</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>144</v>
@@ -2452,13 +2440,13 @@
         <v>153064</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2474,13 @@
         <v>104973</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -2501,13 +2489,13 @@
         <v>104973</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2574,13 @@
         <v>195840</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -2601,13 +2589,13 @@
         <v>195840</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2623,13 @@
         <v>451375</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -2650,13 +2638,13 @@
         <v>451375</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2672,13 @@
         <v>355702</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -2699,13 +2687,13 @@
         <v>355702</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2721,13 @@
         <v>233592</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -2748,13 +2736,13 @@
         <v>233592</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2821,13 @@
         <v>35164</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2848,13 +2836,13 @@
         <v>35164</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2870,13 @@
         <v>107721</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -2897,13 +2885,13 @@
         <v>107721</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2919,13 @@
         <v>128049</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -2946,13 +2934,13 @@
         <v>128049</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2968,13 @@
         <v>75991</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -2995,13 +2983,13 @@
         <v>75991</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3068,13 @@
         <v>445233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -3095,13 +3083,13 @@
         <v>445233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3117,13 @@
         <v>790350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -3144,13 +3132,13 @@
         <v>790350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3166,13 @@
         <v>636815</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>584</v>
@@ -3193,13 +3181,13 @@
         <v>636815</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3215,13 @@
         <v>414556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -3242,13 +3230,13 @@
         <v>414556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3290,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86988CD8-9925-4ECB-8D81-E467CA9C709E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B355A26-A527-4DC9-BDFC-9DC018B8887F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3458,13 +3446,13 @@
         <v>228359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>199</v>
@@ -3473,13 +3461,13 @@
         <v>228359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3495,13 @@
         <v>165352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3522,13 +3510,13 @@
         <v>165352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3544,13 @@
         <v>73567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -3571,13 +3559,13 @@
         <v>73567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3593,13 @@
         <v>35301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3620,13 +3608,13 @@
         <v>35301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3693,13 @@
         <v>262853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M9" s="7">
         <v>249</v>
@@ -3720,13 +3708,13 @@
         <v>262853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3742,13 @@
         <v>581536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>558</v>
@@ -3769,13 +3757,13 @@
         <v>581536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3791,13 @@
         <v>284949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -3818,13 +3806,13 @@
         <v>284949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3840,13 @@
         <v>173704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
@@ -3867,13 +3855,13 @@
         <v>173704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3940,13 @@
         <v>39715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3967,13 +3955,13 @@
         <v>39715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3989,13 @@
         <v>177967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M15" s="7">
         <v>167</v>
@@ -4016,13 +4004,13 @@
         <v>177967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4038,13 @@
         <v>133771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>129</v>
@@ -4065,13 +4053,13 @@
         <v>133771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4087,13 @@
         <v>72637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4114,13 +4102,13 @@
         <v>72637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4187,13 @@
         <v>530927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>484</v>
@@ -4214,13 +4202,13 @@
         <v>530927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4236,13 @@
         <v>924855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>882</v>
@@ -4263,13 +4251,13 @@
         <v>924855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4285,13 @@
         <v>492286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -4312,13 +4300,13 @@
         <v>492286</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4334,13 @@
         <v>281642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -4361,13 +4349,13 @@
         <v>281642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4409,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498D7190-E0D3-4A5D-A281-892FE2ED40D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF369A8-9F0D-4FA3-9327-115FC08676BB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4577,13 +4565,13 @@
         <v>179465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>324</v>
@@ -4592,13 +4580,13 @@
         <v>179465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4614,13 @@
         <v>82543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -4641,13 +4629,13 @@
         <v>82543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4663,13 @@
         <v>34811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -4690,13 +4678,13 @@
         <v>34811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4712,13 @@
         <v>16967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4739,13 +4727,13 @@
         <v>16967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4812,13 @@
         <v>252050</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M9" s="7">
         <v>371</v>
@@ -4839,13 +4827,13 @@
         <v>252050</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4861,13 @@
         <v>324614</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -4888,13 +4876,13 @@
         <v>324614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4910,13 @@
         <v>208758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>291</v>
@@ -4937,13 +4925,13 @@
         <v>208758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4959,13 @@
         <v>133713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -4986,13 +4974,13 @@
         <v>133713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5059,13 @@
         <v>61806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -5086,13 +5074,13 @@
         <v>61806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5108,13 @@
         <v>131250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M15" s="7">
         <v>197</v>
@@ -5135,13 +5123,13 @@
         <v>131250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5157,13 @@
         <v>104046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -5184,13 +5172,13 @@
         <v>104046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5206,13 @@
         <v>73514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -5233,13 +5221,13 @@
         <v>73514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5306,13 @@
         <v>493320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>795</v>
@@ -5333,13 +5321,13 @@
         <v>493320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5355,13 @@
         <v>538407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>806</v>
@@ -5382,13 +5370,13 @@
         <v>538407</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5404,13 @@
         <v>347615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M21" s="7">
         <v>489</v>
@@ -5431,13 +5419,13 @@
         <v>347615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5453,13 @@
         <v>224194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -5480,13 +5468,13 @@
         <v>224194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,7 +5528,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{329661ED-9563-437D-B0DA-10044C29529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F030022-399D-43D5-9ACB-2A6A1D78A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F1B51CF-3750-417F-A221-24B29E8499D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DBC8556-BDBA-4A3F-86FD-E80892DCA21A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="209">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,7 +92,7 @@
     <t>27,38%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>23,62%</t>
   </si>
   <si>
     <t>31,23%</t>
@@ -104,10 +104,10 @@
     <t>21,11%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -116,10 +116,10 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,28 +131,28 @@
     <t>18,02%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>20,53%</t>
@@ -161,7 +161,7 @@
     <t>18,04%</t>
   </si>
   <si>
-    <t>23,25%</t>
+    <t>23,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -170,70 +170,70 @@
     <t>12,28%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>26,05%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
   </si>
   <si>
     <t>26,43%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -245,175 +245,178 @@
     <t>30,45%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>29,34%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>21,47%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
   </si>
   <si>
     <t>45,44%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>9,44%</t>
@@ -422,103 +425,106 @@
     <t>20,17%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>15,26%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>46,66%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>22,0%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>41,48%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
@@ -1071,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433E3D6-DCE5-433E-B4B2-743C8D79AFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22370B74-BF36-4A3B-A8AD-48918F71DADA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -1772,7 +1778,7 @@
         <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1806,13 @@
         <v>98812</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -1815,13 +1821,13 @@
         <v>98812</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1855,13 @@
         <v>85727</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -1864,13 +1870,13 @@
         <v>85727</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1955,13 @@
         <v>421540</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -1964,13 +1970,13 @@
         <v>421540</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2148,7 @@
         <v>1730</v>
       </c>
       <c r="I23" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -2157,7 +2163,7 @@
         <v>1730</v>
       </c>
       <c r="N23" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -2190,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31805369-7E27-4508-AEF1-2B126EFA0E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B56296-03BA-4C3B-9A4B-E6E1D0352B8D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,13 +2629,13 @@
         <v>451375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -2638,13 +2644,13 @@
         <v>451375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>355702</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -2687,13 +2693,13 @@
         <v>355702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2727,13 @@
         <v>233592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -2736,13 +2742,13 @@
         <v>233592</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2827,13 @@
         <v>35164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2836,13 +2842,13 @@
         <v>35164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>107721</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -2885,13 +2891,13 @@
         <v>107721</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2925,13 @@
         <v>128049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -2934,13 +2940,13 @@
         <v>128049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,7 +2974,7 @@
         <v>75991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>100</v>
@@ -2983,7 +2989,7 @@
         <v>75991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>100</v>
@@ -3071,10 +3077,10 @@
         <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -3086,10 +3092,10 @@
         <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3123,13 @@
         <v>790350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -3132,13 +3138,13 @@
         <v>790350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3172,13 @@
         <v>636815</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>584</v>
@@ -3181,13 +3187,13 @@
         <v>636815</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3221,13 @@
         <v>414556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -3230,13 +3236,13 @@
         <v>414556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B355A26-A527-4DC9-BDFC-9DC018B8887F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCBE86-6FE3-442D-829B-9596E2C631E0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3446,13 +3452,13 @@
         <v>228359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>199</v>
@@ -3461,13 +3467,13 @@
         <v>228359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3501,13 @@
         <v>165352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3510,13 +3516,13 @@
         <v>165352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3550,13 @@
         <v>73567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -3559,13 +3565,13 @@
         <v>73567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3599,13 @@
         <v>35301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3608,13 +3614,13 @@
         <v>35301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3699,13 @@
         <v>262853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>249</v>
@@ -3708,13 +3714,13 @@
         <v>262853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>581536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>558</v>
@@ -3757,13 +3763,13 @@
         <v>581536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3797,13 @@
         <v>284949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -3806,13 +3812,13 @@
         <v>284949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3846,13 @@
         <v>173704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
@@ -3855,13 +3861,13 @@
         <v>173704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3946,13 @@
         <v>39715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3955,13 +3961,13 @@
         <v>39715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3995,13 @@
         <v>177967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" s="7">
         <v>167</v>
@@ -4004,13 +4010,13 @@
         <v>177967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4044,13 @@
         <v>133771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>129</v>
@@ -4053,13 +4059,13 @@
         <v>133771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4093,13 @@
         <v>72637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4102,13 +4108,13 @@
         <v>72637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4193,13 @@
         <v>530927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>484</v>
@@ -4202,13 +4208,13 @@
         <v>530927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4242,13 @@
         <v>924855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>882</v>
@@ -4251,13 +4257,13 @@
         <v>924855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4291,13 @@
         <v>492286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -4300,13 +4306,13 @@
         <v>492286</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4340,13 @@
         <v>281642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -4349,13 +4355,13 @@
         <v>281642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF369A8-9F0D-4FA3-9327-115FC08676BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BA7D9-8F1C-4B83-B98D-69D9679FCC82}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4445,7 +4451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4565,13 +4571,13 @@
         <v>179465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>324</v>
@@ -4580,13 +4586,13 @@
         <v>179465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4620,13 @@
         <v>82543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -4629,13 +4635,13 @@
         <v>82543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4669,13 @@
         <v>34811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -4678,13 +4684,13 @@
         <v>34811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4718,13 @@
         <v>16967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4727,13 +4733,13 @@
         <v>16967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4818,13 @@
         <v>252050</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>371</v>
@@ -4827,13 +4833,13 @@
         <v>252050</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4867,13 @@
         <v>324614</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -4876,13 +4882,13 @@
         <v>324614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4916,13 @@
         <v>208758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>291</v>
@@ -4925,13 +4931,13 @@
         <v>208758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4965,13 @@
         <v>133713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -4974,13 +4980,13 @@
         <v>133713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5065,13 @@
         <v>61806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -5074,13 +5080,13 @@
         <v>61806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5114,13 @@
         <v>131250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7">
         <v>197</v>
@@ -5123,13 +5129,13 @@
         <v>131250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5163,13 @@
         <v>104046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -5172,13 +5178,13 @@
         <v>104046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5212,13 @@
         <v>73514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -5221,13 +5227,13 @@
         <v>73514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5312,13 @@
         <v>493320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>795</v>
@@ -5321,13 +5327,13 @@
         <v>493320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5361,13 @@
         <v>538407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>806</v>
@@ -5370,13 +5376,13 @@
         <v>538407</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5410,13 @@
         <v>347615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M21" s="7">
         <v>489</v>
@@ -5419,13 +5425,13 @@
         <v>347615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5459,13 @@
         <v>224194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -5468,13 +5474,13 @@
         <v>224194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F030022-399D-43D5-9ACB-2A6A1D78A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEBCEED-2B05-4D2B-AD82-557CCE52367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1DBC8556-BDBA-4A3F-86FD-E80892DCA21A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3026D3F6-D712-4FD0-8944-A9225A7F7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="211">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,580 +92,586 @@
     <t>27,38%</t>
   </si>
   <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>12,45%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22370B74-BF36-4A3B-A8AD-48918F71DADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6C97CD-03A9-4C52-9ACF-3EFBB6814BD7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1763,7 +1769,7 @@
         <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -1778,7 +1784,7 @@
         <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1812,13 @@
         <v>98812</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -1821,13 +1827,13 @@
         <v>98812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1861,13 @@
         <v>85727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -1870,13 +1876,13 @@
         <v>85727</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1961,13 @@
         <v>421540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -1970,13 +1976,13 @@
         <v>421540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2010,13 @@
         <v>554054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
@@ -2019,13 +2025,13 @@
         <v>554054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2059,13 @@
         <v>471680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -2068,13 +2074,13 @@
         <v>471680</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2108,13 @@
         <v>331836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>318</v>
@@ -2117,13 +2123,13 @@
         <v>331836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2183,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B56296-03BA-4C3B-9A4B-E6E1D0352B8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB73152-3347-4F21-9553-7664D4F566BD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,7 +2219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2333,13 +2339,13 @@
         <v>214229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
         <v>198</v>
@@ -2348,13 +2354,13 @@
         <v>214229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2388,13 @@
         <v>231254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>218</v>
@@ -2397,13 +2403,13 @@
         <v>231254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2437,13 @@
         <v>153064</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>144</v>
@@ -2446,13 +2452,13 @@
         <v>153064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2486,13 @@
         <v>104973</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -2495,13 +2501,13 @@
         <v>104973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2586,13 @@
         <v>195840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -2595,13 +2601,13 @@
         <v>195840</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2635,13 @@
         <v>451375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -2644,13 +2650,13 @@
         <v>451375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2684,13 @@
         <v>355702</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -2693,13 +2699,13 @@
         <v>355702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2733,13 @@
         <v>233592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -2742,13 +2748,13 @@
         <v>233592</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>35164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2842,13 +2848,13 @@
         <v>35164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2882,13 @@
         <v>107721</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>97</v>
@@ -2891,13 +2897,13 @@
         <v>107721</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2931,13 @@
         <v>128049</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -2940,13 +2946,13 @@
         <v>128049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
         <v>75991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -2989,13 +2995,13 @@
         <v>75991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3080,13 @@
         <v>445233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>410</v>
@@ -3089,13 +3095,13 @@
         <v>445233</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3129,13 @@
         <v>790350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -3138,13 +3144,13 @@
         <v>790350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3178,13 @@
         <v>636815</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>584</v>
@@ -3187,13 +3193,13 @@
         <v>636815</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3227,13 @@
         <v>414556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -3236,13 +3242,13 @@
         <v>414556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3302,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +3321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCBE86-6FE3-442D-829B-9596E2C631E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF52A3-7B02-49A9-9C4C-B0435D94237B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,7 +3338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3452,13 +3458,13 @@
         <v>228359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>199</v>
@@ -3467,13 +3473,13 @@
         <v>228359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>165352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3516,13 +3522,13 @@
         <v>165352</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3556,13 @@
         <v>73567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>70</v>
@@ -3565,13 +3571,13 @@
         <v>73567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3605,13 @@
         <v>35301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3614,13 +3620,13 @@
         <v>35301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3705,13 @@
         <v>262853</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
         <v>249</v>
@@ -3714,13 +3720,13 @@
         <v>262853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3754,13 @@
         <v>581536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>558</v>
@@ -3763,13 +3769,13 @@
         <v>581536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3803,13 @@
         <v>284949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -3812,13 +3818,13 @@
         <v>284949</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3852,13 @@
         <v>173704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>166</v>
@@ -3861,13 +3867,13 @@
         <v>173704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3952,13 @@
         <v>39715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3961,13 +3967,13 @@
         <v>39715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4001,13 @@
         <v>177967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M15" s="7">
         <v>167</v>
@@ -4010,13 +4016,13 @@
         <v>177967</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4050,13 @@
         <v>133771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>129</v>
@@ -4059,13 +4065,13 @@
         <v>133771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4099,13 @@
         <v>72637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4108,13 +4114,13 @@
         <v>72637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>530927</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
         <v>484</v>
@@ -4208,13 +4214,13 @@
         <v>530927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4248,13 @@
         <v>924855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>882</v>
@@ -4257,13 +4263,13 @@
         <v>924855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4297,13 @@
         <v>492286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -4306,13 +4312,13 @@
         <v>492286</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4346,13 @@
         <v>281642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -4355,13 +4361,13 @@
         <v>281642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,7 +4421,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BA7D9-8F1C-4B83-B98D-69D9679FCC82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF2D48-72B4-46AD-942C-C5D426ED6203}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4451,7 +4457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4571,13 +4577,13 @@
         <v>179465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>324</v>
@@ -4586,13 +4592,13 @@
         <v>179465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4626,13 @@
         <v>82543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>125</v>
@@ -4635,13 +4641,13 @@
         <v>82543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4675,13 @@
         <v>34811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -4684,13 +4690,13 @@
         <v>34811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4724,13 @@
         <v>16967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4733,13 +4739,13 @@
         <v>16967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4824,13 @@
         <v>252050</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>371</v>
@@ -4833,13 +4839,13 @@
         <v>252050</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>324614</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>484</v>
@@ -4882,13 +4888,13 @@
         <v>324614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4922,13 @@
         <v>208758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>291</v>
@@ -4931,13 +4937,13 @@
         <v>208758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4971,13 @@
         <v>133713</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M12" s="7">
         <v>188</v>
@@ -4980,13 +4986,13 @@
         <v>133713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5071,13 @@
         <v>61806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -5080,13 +5086,13 @@
         <v>61806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5120,13 @@
         <v>131250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M15" s="7">
         <v>197</v>
@@ -5129,13 +5135,13 @@
         <v>131250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5169,13 @@
         <v>104046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -5178,13 +5184,13 @@
         <v>104046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>73514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -5227,13 +5233,13 @@
         <v>73514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5318,13 @@
         <v>493320</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>795</v>
@@ -5327,13 +5333,13 @@
         <v>493320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5367,13 @@
         <v>538407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>806</v>
@@ -5376,13 +5382,13 @@
         <v>538407</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5416,13 @@
         <v>347615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M21" s="7">
         <v>489</v>
@@ -5425,13 +5431,13 @@
         <v>347615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5465,13 @@
         <v>224194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -5474,13 +5480,13 @@
         <v>224194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5540,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEBCEED-2B05-4D2B-AD82-557CCE52367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A494CC9-731F-460F-AEFD-231738F285F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3026D3F6-D712-4FD0-8944-A9225A7F7F08}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E02C4CB0-1BB7-455D-B446-090D162EB8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="212">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -536,142 +536,145 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6C97CD-03A9-4C52-9ACF-3EFBB6814BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4C3F6B-39C1-40E6-85A2-62FE2C7F4609}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2154,7 +2157,7 @@
         <v>1730</v>
       </c>
       <c r="I23" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -2169,7 +2172,7 @@
         <v>1730</v>
       </c>
       <c r="N23" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -2202,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB73152-3347-4F21-9553-7664D4F566BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205089F0-B3E7-4193-BD85-27FF211F5F33}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3129,7 @@
         <v>731</v>
       </c>
       <c r="I20" s="7">
-        <v>790350</v>
+        <v>790349</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>107</v>
@@ -3141,7 +3144,7 @@
         <v>731</v>
       </c>
       <c r="N20" s="7">
-        <v>790350</v>
+        <v>790349</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>107</v>
@@ -3273,7 +3276,7 @@
         <v>2101</v>
       </c>
       <c r="I23" s="7">
-        <v>2286954</v>
+        <v>2286953</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -3288,7 +3291,7 @@
         <v>2101</v>
       </c>
       <c r="N23" s="7">
-        <v>2286954</v>
+        <v>2286953</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -3321,7 +3324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FF52A3-7B02-49A9-9C4C-B0435D94237B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD17B9F-4A0D-48FD-B5A6-394C393FA129}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4245,7 +4248,7 @@
         <v>882</v>
       </c>
       <c r="I20" s="7">
-        <v>924855</v>
+        <v>924854</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>155</v>
@@ -4260,7 +4263,7 @@
         <v>882</v>
       </c>
       <c r="N20" s="7">
-        <v>924855</v>
+        <v>924854</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>155</v>
@@ -4392,7 +4395,7 @@
         <v>2111</v>
       </c>
       <c r="I23" s="7">
-        <v>2229710</v>
+        <v>2229709</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -4407,7 +4410,7 @@
         <v>2111</v>
       </c>
       <c r="N23" s="7">
-        <v>2229710</v>
+        <v>2229709</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -4440,7 +4443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF2D48-72B4-46AD-942C-C5D426ED6203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A8BFAF-12DF-42B0-9A6D-CF08609C6EC4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4574,7 +4577,7 @@
         <v>324</v>
       </c>
       <c r="I4" s="7">
-        <v>179465</v>
+        <v>164770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>165</v>
@@ -4589,7 +4592,7 @@
         <v>324</v>
       </c>
       <c r="N4" s="7">
-        <v>179465</v>
+        <v>164770</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -4623,7 +4626,7 @@
         <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>82543</v>
+        <v>73445</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>168</v>
@@ -4638,7 +4641,7 @@
         <v>125</v>
       </c>
       <c r="N5" s="7">
-        <v>82543</v>
+        <v>73445</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>168</v>
@@ -4672,7 +4675,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>34811</v>
+        <v>30195</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>171</v>
@@ -4687,7 +4690,7 @@
         <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>34811</v>
+        <v>30195</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>171</v>
@@ -4721,7 +4724,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>16967</v>
+        <v>15609</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>174</v>
@@ -4736,7 +4739,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>16967</v>
+        <v>15609</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>174</v>
@@ -4770,7 +4773,7 @@
         <v>529</v>
       </c>
       <c r="I8" s="7">
-        <v>313786</v>
+        <v>284019</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -4785,7 +4788,7 @@
         <v>529</v>
       </c>
       <c r="N8" s="7">
-        <v>313786</v>
+        <v>284019</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -4821,7 +4824,7 @@
         <v>371</v>
       </c>
       <c r="I9" s="7">
-        <v>252050</v>
+        <v>315064</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>177</v>
@@ -4836,7 +4839,7 @@
         <v>371</v>
       </c>
       <c r="N9" s="7">
-        <v>252050</v>
+        <v>315064</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>177</v>
@@ -4870,7 +4873,7 @@
         <v>484</v>
       </c>
       <c r="I10" s="7">
-        <v>324614</v>
+        <v>300988</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>180</v>
@@ -4885,7 +4888,7 @@
         <v>484</v>
       </c>
       <c r="N10" s="7">
-        <v>324614</v>
+        <v>300988</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>180</v>
@@ -4919,7 +4922,7 @@
         <v>291</v>
       </c>
       <c r="I11" s="7">
-        <v>208758</v>
+        <v>191881</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>183</v>
@@ -4934,7 +4937,7 @@
         <v>291</v>
       </c>
       <c r="N11" s="7">
-        <v>208758</v>
+        <v>191881</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>183</v>
@@ -4968,7 +4971,7 @@
         <v>188</v>
       </c>
       <c r="I12" s="7">
-        <v>133713</v>
+        <v>125147</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>186</v>
@@ -4983,7 +4986,7 @@
         <v>188</v>
       </c>
       <c r="N12" s="7">
-        <v>133713</v>
+        <v>125147</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>186</v>
@@ -5017,7 +5020,7 @@
         <v>1334</v>
       </c>
       <c r="I13" s="7">
-        <v>919134</v>
+        <v>933080</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -5032,7 +5035,7 @@
         <v>1334</v>
       </c>
       <c r="N13" s="7">
-        <v>919134</v>
+        <v>933080</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -5068,7 +5071,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="7">
-        <v>61806</v>
+        <v>57422</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>189</v>
@@ -5083,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>61806</v>
+        <v>57422</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>189</v>
@@ -5117,7 +5120,7 @@
         <v>197</v>
       </c>
       <c r="I15" s="7">
-        <v>131250</v>
+        <v>123234</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>192</v>
@@ -5132,7 +5135,7 @@
         <v>197</v>
       </c>
       <c r="N15" s="7">
-        <v>131250</v>
+        <v>123234</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>192</v>
@@ -5166,7 +5169,7 @@
         <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>104046</v>
+        <v>95723</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>195</v>
@@ -5175,13 +5178,13 @@
         <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
       </c>
       <c r="N16" s="7">
-        <v>104046</v>
+        <v>95723</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>195</v>
@@ -5190,7 +5193,7 @@
         <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,31 +5218,31 @@
         <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>73514</v>
+        <v>68874</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
       </c>
       <c r="N17" s="7">
-        <v>73514</v>
+        <v>68874</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,7 +5267,7 @@
         <v>541</v>
       </c>
       <c r="I18" s="7">
-        <v>370616</v>
+        <v>345252</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -5279,7 +5282,7 @@
         <v>541</v>
       </c>
       <c r="N18" s="7">
-        <v>370616</v>
+        <v>345252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -5315,31 +5318,31 @@
         <v>795</v>
       </c>
       <c r="I19" s="7">
-        <v>493320</v>
+        <v>537256</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>795</v>
       </c>
       <c r="N19" s="7">
-        <v>493320</v>
+        <v>537256</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5367,7 @@
         <v>806</v>
       </c>
       <c r="I20" s="7">
-        <v>538407</v>
+        <v>497666</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>203</v>
@@ -5379,7 +5382,7 @@
         <v>806</v>
       </c>
       <c r="N20" s="7">
-        <v>538407</v>
+        <v>497666</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>203</v>
@@ -5413,7 +5416,7 @@
         <v>489</v>
       </c>
       <c r="I21" s="7">
-        <v>347615</v>
+        <v>317798</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>206</v>
@@ -5428,7 +5431,7 @@
         <v>489</v>
       </c>
       <c r="N21" s="7">
-        <v>347615</v>
+        <v>317798</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>206</v>
@@ -5462,7 +5465,7 @@
         <v>314</v>
       </c>
       <c r="I22" s="7">
-        <v>224194</v>
+        <v>209630</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>209</v>
@@ -5471,13 +5474,13 @@
         <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
       </c>
       <c r="N22" s="7">
-        <v>224194</v>
+        <v>209630</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>209</v>
@@ -5486,7 +5489,7 @@
         <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5514,7 @@
         <v>2404</v>
       </c>
       <c r="I23" s="7">
-        <v>1603536</v>
+        <v>1562351</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5526,7 +5529,7 @@
         <v>2404</v>
       </c>
       <c r="N23" s="7">
-        <v>1603536</v>
+        <v>1562351</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
